--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_BaoCaoSoChuyenNamSau.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_BaoCaoSoChuyenNamSau.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SourceCode\New folder\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Sources\qlns-ctc-bqp-main\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$13:$R$13</definedName>
+    <definedName name="__dt__">Sheet1!$A$12:$Q$12</definedName>
     <definedName name="__dv__">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$T$27</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$8:$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t xml:space="preserve">Mục </t>
   </si>
@@ -78,12 +78,6 @@
     <t>Tiêu mục</t>
   </si>
   <si>
-    <t>ĐƠN VỊ CẤP TRÊN</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ</t>
-  </si>
-  <si>
     <t>Chương trình, danh mục,VKTBT, nội dung chi</t>
   </si>
   <si>
@@ -120,16 +114,7 @@
     <t>Cộng</t>
   </si>
   <si>
-    <t xml:space="preserve">Người lập biểu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi chú: </t>
-  </si>
-  <si>
     <t>Ngày...... tháng.... năm.....</t>
-  </si>
-  <si>
-    <t>THỦ TRƯỞNG ĐƠN VỊ</t>
   </si>
   <si>
     <t>&lt;#txtTieuDe1&gt;</t>
@@ -239,6 +224,30 @@
   </si>
   <si>
     <t>14 = 4 - 10 - 12</t>
+  </si>
+  <si>
+    <t>&lt;#sTenDonViCapTren&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTenDonViCapDuoi&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
   </si>
 </sst>
 </file>
@@ -516,13 +525,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,19 +582,56 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -611,13 +650,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,27 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -944,558 +955,574 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="33" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:J16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="33" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
-    <col min="5" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="21" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="54" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+    </row>
+    <row r="7" spans="1:17" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="65" t="s">
+      <c r="D8" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="63" t="s">
+      <c r="E8" s="69"/>
+      <c r="F8" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="69"/>
+      <c r="P8" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="66"/>
+    </row>
+    <row r="9" spans="1:17" ht="88.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="68"/>
+    </row>
+    <row r="10" spans="1:17" ht="88.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="40" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="41">
+        <v>1</v>
+      </c>
+      <c r="E11" s="41">
+        <v>2</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="41">
+        <v>5</v>
+      </c>
+      <c r="I11" s="41">
+        <v>6</v>
+      </c>
+      <c r="J11" s="41">
+        <v>7</v>
+      </c>
+      <c r="K11" s="41">
+        <v>8</v>
+      </c>
+      <c r="L11" s="18">
+        <v>9</v>
+      </c>
+      <c r="M11" s="41">
+        <v>10</v>
+      </c>
+      <c r="N11" s="18">
+        <v>11</v>
+      </c>
+      <c r="O11" s="41">
+        <v>12</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62" t="s">
+    </row>
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="58" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" s="42" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="59"/>
-    </row>
-    <row r="10" spans="2:18" ht="88.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
-    </row>
-    <row r="11" spans="2:18" ht="88.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" s="45" customFormat="1" ht="88.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="46">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="46" t="s">
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="46">
-        <v>5</v>
-      </c>
-      <c r="J12" s="46">
-        <v>6</v>
-      </c>
-      <c r="K12" s="46">
-        <v>7</v>
-      </c>
-      <c r="L12" s="46">
-        <v>8</v>
-      </c>
-      <c r="M12" s="21">
-        <v>9</v>
-      </c>
-      <c r="N12" s="46">
-        <v>10</v>
-      </c>
-      <c r="O12" s="21">
-        <v>11</v>
-      </c>
-      <c r="P12" s="46">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="21" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="O17" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" s="7" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" s="69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="2:18" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="M19" s="20"/>
-      <c r="Q19" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="17"/>
+      <c r="O18" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="L19" s="17"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="F26" s="14"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="F27" s="14"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="O24" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E25" s="11"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E26" s="11"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="Q9:R10"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
+  <mergeCells count="27">
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:C23"/>
+    <mergeCell ref="O19:Q23"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"-,Italic"Trang  &amp;P</oddHeader>
   </headerFooter>
@@ -1510,240 +1537,240 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="26" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="26"/>
-    <col min="4" max="4" width="17.33203125" style="26" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" style="26"/>
-    <col min="8" max="8" width="21.6640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="26"/>
-    <col min="11" max="11" width="14.33203125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="26"/>
-    <col min="13" max="13" width="23.88671875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="26"/>
+    <col min="1" max="1" width="25" style="23" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="23"/>
+    <col min="4" max="4" width="17.28515625" style="23" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="23"/>
+    <col min="8" max="8" width="21.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="23"/>
+    <col min="11" max="11" width="14.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="23.85546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="L9" s="22"/>
+      <c r="M9" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="I10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="30" t="s">
+      <c r="I11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="25"/>
-      <c r="M9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="H13" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I14" s="38"/>
+      <c r="I13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
